--- a/Diagrama de Gantt simple.xlsx
+++ b/Diagrama de Gantt simple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1320D79-5E3A-4A21-8115-F258C1B60637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B780347-DEA4-45E2-AB40-A842E0B0B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,13 +170,7 @@
 MTRO. FEDERICO ARMANDO ARIAS ZAMBRANO</t>
   </si>
   <si>
-    <t>POTABILIZACION DE EFLUENTES</t>
-  </si>
-  <si>
     <t>SPRINT 1</t>
-  </si>
-  <si>
-    <t>Diseñar un plan de metricas.</t>
   </si>
   <si>
     <t>Definición del proceso.</t>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>SPRINT 4</t>
+  </si>
+  <si>
+    <t>POTABILIZACIÓN DE EFLUENTES</t>
+  </si>
+  <si>
+    <t>Diseñar un plan de métricas.</t>
   </si>
 </sst>
 </file>
@@ -1201,47 +1201,47 @@
     <xf numFmtId="169" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1797,8 +1797,8 @@
   <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1833,7 +1833,7 @@
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="49"/>
@@ -1842,108 +1842,108 @@
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="73">
+      <c r="D3" s="81"/>
+      <c r="E3" s="79">
         <v>45911</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="76">
         <f>I5</f>
         <v>45908</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="70">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="76">
         <f>P5</f>
         <v>45915</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="70">
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="76">
         <f>W5</f>
         <v>45922</v>
       </c>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="70">
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76">
         <f>AD5</f>
         <v>45929</v>
       </c>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="70">
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="76">
         <f>AK5</f>
         <v>45936</v>
       </c>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="70">
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="76">
         <f>AR5</f>
         <v>45943</v>
       </c>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="70">
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="76">
         <f>AY5</f>
         <v>45950</v>
       </c>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="70">
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="76">
         <f>BF5</f>
         <v>45957</v>
       </c>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="72"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="78"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
@@ -2500,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="16"/>
@@ -2573,10 +2573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2656,10 +2656,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2737,10 +2737,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -2818,10 +2818,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -2899,10 +2899,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -2977,10 +2977,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -3060,9 +3060,9 @@
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="76"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="69"/>
       <c r="D15" s="19"/>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -3131,10 +3131,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="20">
         <v>1</v>
@@ -3212,10 +3212,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="20">
         <v>1</v>
@@ -3293,10 +3293,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="20">
         <v>0.5</v>
@@ -3374,10 +3374,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="20">
         <v>0.5</v>
@@ -3452,10 +3452,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="20">
         <v>0</v>
@@ -3533,10 +3533,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -3616,9 +3616,9 @@
         <v>11</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="78"/>
+        <v>47</v>
+      </c>
+      <c r="C22" s="71"/>
       <c r="D22" s="22"/>
       <c r="E22" s="56"/>
       <c r="F22" s="57"/>
@@ -3689,7 +3689,7 @@
       <c r="B23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="23"/>
       <c r="E23" s="58" t="s">
         <v>26</v>
@@ -3764,7 +3764,7 @@
       <c r="B24" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="23"/>
       <c r="E24" s="58" t="s">
         <v>26</v>
@@ -3839,7 +3839,7 @@
       <c r="B25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="23"/>
       <c r="E25" s="58" t="s">
         <v>26</v>
@@ -3914,7 +3914,7 @@
       <c r="B26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="23"/>
       <c r="E26" s="58" t="s">
         <v>26</v>
@@ -3989,7 +3989,7 @@
       <c r="B27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="23"/>
       <c r="E27" s="58" t="s">
         <v>26</v>
@@ -4064,9 +4064,9 @@
         <v>11</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="80"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="73"/>
       <c r="D28" s="25"/>
       <c r="E28" s="59"/>
       <c r="F28" s="60"/>
@@ -4137,7 +4137,7 @@
       <c r="B29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="26"/>
       <c r="E29" s="61" t="s">
         <v>26</v>
@@ -4212,7 +4212,7 @@
       <c r="B30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="26"/>
       <c r="E30" s="61" t="s">
         <v>26</v>
@@ -4287,7 +4287,7 @@
       <c r="B31" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="26"/>
       <c r="E31" s="61" t="s">
         <v>26</v>
@@ -4362,7 +4362,7 @@
       <c r="B32" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="26"/>
       <c r="E32" s="61" t="s">
         <v>26</v>
@@ -4437,7 +4437,7 @@
       <c r="B33" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="26"/>
       <c r="E33" s="61" t="s">
         <v>26</v>
@@ -4743,6 +4743,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4760,15 +4769,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5060,6 +5060,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5067,14 +5075,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Diagrama de Gantt simple.xlsx
+++ b/Diagrama de Gantt simple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B780347-DEA4-45E2-AB40-A842E0B0B257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7924A-9613-4CE6-8C78-D02DC90ABEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1796,16 +1796,16 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -4743,15 +4743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4769,6 +4760,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5060,14 +5060,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5075,6 +5067,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
